--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20474DDF-E380-42E9-8525-92E17D302DC8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A99FA38-EC8F-4BF0-BCA8-25F0CE681D14}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -58,18 +58,6 @@
     <t>Credit cart-2</t>
   </si>
   <si>
-    <t>3. В четвертую строку кода вставляем данные банковской карты  6011040465635704</t>
-  </si>
-  <si>
-    <t>3. В четвертую строку кода вставляем данные банковской карты  4506715206547907</t>
-  </si>
-  <si>
-    <t>3. В четвертую строку кода вставляем данные банковской карты  5305927971579987</t>
-  </si>
-  <si>
-    <t>3. В четвертую строку кода вставляем данные банковской карты  4507637253553449</t>
-  </si>
-  <si>
     <t>Credit cart-3</t>
   </si>
   <si>
@@ -79,18 +67,6 @@
     <t>Credit cart-5</t>
   </si>
   <si>
-    <t>Проверка валидности банковских карт №1</t>
-  </si>
-  <si>
-    <t>Проверка валидности банковских карт №2</t>
-  </si>
-  <si>
-    <t>Проверка валидности банковских карт №3</t>
-  </si>
-  <si>
-    <t>Проверка валидности банковских карт №4</t>
-  </si>
-  <si>
     <t>1. Открыт проект</t>
   </si>
   <si>
@@ -113,6 +89,85 @@
   </si>
   <si>
     <t>4. Повляется сообщение "Result is OK"</t>
+  </si>
+  <si>
+    <t>Проверка валидности банковских карт платежной системы Visa</t>
+  </si>
+  <si>
+    <t>Проверка валидности банковских карт платежной системы MasterCard</t>
+  </si>
+  <si>
+    <t>Проверка валидности банковских карт плажной системы Discover</t>
+  </si>
+  <si>
+    <t>Проверка валидности банковских карт платежной системы AmericanExpress</t>
+  </si>
+  <si>
+    <t>Проверка валидности банковских карт платежной системы JCB</t>
+  </si>
+  <si>
+    <t>Проверка валидности банковских карт платежной системы Мир</t>
+  </si>
+  <si>
+    <t>3. В четвертую строку кода вставляем данные банковской карты  платежной системы Visa, номера карт находятся в поле "Комментарии к тесту"</t>
+  </si>
+  <si>
+    <t>3. В четвертую строку кода вставляем данные банковской карты  платежной системы Мир, номера карт находятся в поле "Комментарии к тесту"</t>
+  </si>
+  <si>
+    <t>3. В четвертую строку кода вставляем данные банковской карты  платежной системы  JCB, номера карт находятся в поле "Комментарии к тесту"</t>
+  </si>
+  <si>
+    <t>3. В четвертую строку кода вставляем данные банковской карты  платежной системы AmericanExpress, номера карт находятся в поле "Комментарии к тесту"</t>
+  </si>
+  <si>
+    <t>3. В четвертую строку кода вставляем данные банковской карты  платежной системы Discover, номера карт находятся в поле "Комментарии к тесту"</t>
+  </si>
+  <si>
+    <t>3. В четвертую строку кода вставляем данные банковской карты  платежной системы MasterCard, номера карт находятся в поле "Комментарии к тесту"</t>
+  </si>
+  <si>
+    <t>Номера карт:
+5485996415141185
+5104165295273341
+4648979484356139</t>
+  </si>
+  <si>
+    <t>Номера карт:
+5465517936751700
+5579670626701791
+5226977188996652</t>
+  </si>
+  <si>
+    <t>Номера карт:
+6011411495244165
+6011717974613526
+6011060123967620</t>
+  </si>
+  <si>
+    <t>Номера карт:
+341543758522053
+373299536227827
+372427953820409</t>
+  </si>
+  <si>
+    <t>Номера карт:
+3539852960817797
+3548697430381737
+3568204546125861</t>
+  </si>
+  <si>
+    <t>Номера карт:
+2202138139086298
+2202942716963198
+2202973116270828 
+2200572041473621</t>
+  </si>
+  <si>
+    <t>Credit cart-6</t>
+  </si>
+  <si>
+    <t>Credit cart-7</t>
   </si>
 </sst>
 </file>
@@ -179,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -269,11 +324,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -302,6 +370,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -320,7 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G20"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,284 +715,412 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="F27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="35">
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
@@ -947,6 +1146,16 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="G25:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
